--- a/docs/capabilities/l21_bounded/L21_supertable_v3_cap_bounded_v1.xlsx
+++ b/docs/capabilities/l21_bounded/L21_supertable_v3_cap_bounded_v1.xlsx
@@ -548,17 +548,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-001</t>
+          <t>ACT-GEN-CAP-011</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEN-CAP-001</t>
+          <t>GEN-CAP-011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Generated] Execution Replay &amp; Activity</t>
+          <t>[Generated] M28 Governance Orchestration</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CAP-CAP-001</t>
+          <t>CAP-CAP-011</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-011</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -638,12 +638,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-011</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Execution Replay &amp; Activity</t>
+          <t>M28 Governance Orchestration</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -660,17 +660,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-011</t>
+          <t>ACT-GEN-CAP-016</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEN-CAP-011</t>
+          <t>GEN-CAP-016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Generated] M28 Governance Orchestration</t>
+          <t>[Generated] Skill System (M2/M3)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CAP-CAP-011</t>
+          <t>CAP-CAP-016</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CAP-011</t>
+          <t>CAP-016</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>CAP-011</t>
+          <t>CAP-016</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>M28 Governance Orchestration</t>
+          <t>Skill System (M2/M3)</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -772,17 +772,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-016</t>
+          <t>ACT-GEN-CAP-002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEN-CAP-016</t>
+          <t>GEN-CAP-002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Generated] Skill System (M2/M3)</t>
+          <t>[Generated] Cost Simulation V2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CAP-CAP-016</t>
+          <t>CAP-CAP-002</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CAP-016</t>
+          <t>CAP-002</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -862,12 +862,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>CAP-016</t>
+          <t>CAP-002</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Skill System (M2/M3)</t>
+          <t>Cost Simulation V2</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -884,17 +884,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-002</t>
+          <t>ACT-GEN-CAP-008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GEN-CAP-002</t>
+          <t>GEN-CAP-008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[Generated] Cost Simulation V2</t>
+          <t>[Generated] M12 Multi-Agent Orchestration</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CAP-CAP-002</t>
+          <t>CAP-CAP-008</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>CAP-002</t>
+          <t>CAP-008</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -974,12 +974,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>CAP-002</t>
+          <t>CAP-008</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Cost Simulation V2</t>
+          <t>M12 Multi-Agent Orchestration</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -996,17 +996,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-008</t>
+          <t>ACT-GEN-CAP-012</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GEN-CAP-008</t>
+          <t>GEN-CAP-012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Generated] M12 Multi-Agent Orchestration</t>
+          <t>[Generated] M4 Workflow Engine</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CAP-CAP-008</t>
+          <t>CAP-CAP-012</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>CAP-008</t>
+          <t>CAP-012</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>CAP-008</t>
+          <t>CAP-012</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>M12 Multi-Agent Orchestration</t>
+          <t>M4 Workflow Engine</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1108,17 +1108,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-012</t>
+          <t>ACT-GEN-CAP-020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GEN-CAP-012</t>
+          <t>GEN-CAP-020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Generated] M4 Workflow Engine</t>
+          <t>[Generated] CLI Execution</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CAP-CAP-012</t>
+          <t>CAP-CAP-020</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>CAP-012</t>
+          <t>CAP-020</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>CAP-012</t>
+          <t>CAP-020</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>M4 Workflow Engine</t>
+          <t>CLI Execution</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1220,17 +1220,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-020</t>
+          <t>ACT-GEN-CAP-021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GEN-CAP-020</t>
+          <t>GEN-CAP-021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Generated] CLI Execution</t>
+          <t>[Generated] SDK Execution</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CAP-CAP-020</t>
+          <t>CAP-CAP-021</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>CAP-020</t>
+          <t>CAP-021</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>CAP-020</t>
+          <t>CAP-021</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>CLI Execution</t>
+          <t>SDK Execution</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1332,17 +1332,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-021</t>
+          <t>ACT-GEN-CAP-001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GEN-CAP-021</t>
+          <t>GEN-CAP-001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[Generated] SDK Execution</t>
+          <t>[Generated] Execution Replay &amp; Activity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CAP-CAP-021</t>
+          <t>CAP-CAP-001</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1367,17 +1367,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>EVIDENCE</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>CAP-021</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1422,12 +1422,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>CAP-021</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>SDK Execution</t>
+          <t>Execution Replay &amp; Activity</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2116,17 +2116,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INC-GEN-CAP-001</t>
+          <t>INC-GEN-CAP-002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GEN-CAP-001</t>
+          <t>GEN-CAP-002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[Generated] Execution Replay &amp; Activity</t>
+          <t>[Generated] Cost Simulation V2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CAP-CAP-001</t>
+          <t>CAP-CAP-002</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-002</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2206,12 +2206,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-002</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Execution Replay &amp; Activity</t>
+          <t>Cost Simulation V2</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2228,17 +2228,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INC-GEN-CAP-002</t>
+          <t>INC-GEN-CAP-005</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GEN-CAP-002</t>
+          <t>GEN-CAP-005</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[Generated] Cost Simulation V2</t>
+          <t>[Generated] Founder Console</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CAP-CAP-002</t>
+          <t>CAP-CAP-005</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>GOVERN</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CAP-002</t>
+          <t>CAP-005</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>CAP-002</t>
+          <t>CAP-005</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Cost Simulation V2</t>
+          <t>Founder Console</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2340,17 +2340,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INC-GEN-CAP-005</t>
+          <t>INC-GEN-CAP-009</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GEN-CAP-005</t>
+          <t>GEN-CAP-009</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Generated] Founder Console</t>
+          <t>[Generated] M19 Policy Engine</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CAP-CAP-005</t>
+          <t>CAP-CAP-009</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CONTROL</t>
+          <t>ACT</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>GOVERN</t>
+          <t>WRITE</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>CAP-005</t>
+          <t>CAP-009</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2430,12 +2430,12 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>CAP-005</t>
+          <t>CAP-009</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Founder Console</t>
+          <t>M19 Policy Engine</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -2452,17 +2452,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INC-GEN-CAP-009</t>
+          <t>INC-GEN-CAP-021</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GEN-CAP-009</t>
+          <t>GEN-CAP-021</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Generated] M19 Policy Engine</t>
+          <t>[Generated] SDK Execution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CAP-CAP-009</t>
+          <t>CAP-CAP-021</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>CAP-009</t>
+          <t>CAP-021</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2542,12 +2542,12 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>CAP-009</t>
+          <t>CAP-021</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>M19 Policy Engine</t>
+          <t>SDK Execution</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2564,17 +2564,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INC-GEN-CAP-021</t>
+          <t>INC-GEN-CAP-001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GEN-CAP-021</t>
+          <t>GEN-CAP-001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Generated] SDK Execution</t>
+          <t>[Generated] Execution Replay &amp; Activity</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CAP-CAP-021</t>
+          <t>CAP-CAP-001</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2599,17 +2599,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>EVIDENCE</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>CAP-021</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2654,12 +2654,12 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>CAP-021</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>SDK Execution</t>
+          <t>Execution Replay &amp; Activity</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2676,17 +2676,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LOG-GEN-CAP-001</t>
+          <t>LOG-GEN-CAP-002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GEN-CAP-001</t>
+          <t>GEN-CAP-002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Generated] Execution Replay &amp; Activity</t>
+          <t>[Generated] Cost Simulation V2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CAP-CAP-001</t>
+          <t>CAP-CAP-002</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-002</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2766,12 +2766,12 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-002</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Execution Replay &amp; Activity</t>
+          <t>Cost Simulation V2</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2788,17 +2788,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LOG-GEN-CAP-002</t>
+          <t>LOG-GEN-CAP-021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GEN-CAP-002</t>
+          <t>GEN-CAP-021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[Generated] Cost Simulation V2</t>
+          <t>[Generated] SDK Execution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CAP-CAP-002</t>
+          <t>CAP-CAP-021</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>CAP-002</t>
+          <t>CAP-021</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>CAP-002</t>
+          <t>CAP-021</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Cost Simulation V2</t>
+          <t>SDK Execution</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -2900,17 +2900,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LOG-GEN-CAP-021</t>
+          <t>LOG-GEN-CAP-001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GEN-CAP-021</t>
+          <t>GEN-CAP-001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[Generated] SDK Execution</t>
+          <t>[Generated] Execution Replay &amp; Activity</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CAP-CAP-021</t>
+          <t>CAP-CAP-001</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2935,17 +2935,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>EVIDENCE</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>CAP-021</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2990,12 +2990,12 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>CAP-021</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>SDK Execution</t>
+          <t>Execution Replay &amp; Activity</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -3460,17 +3460,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>POL-GEN-CAP-001</t>
+          <t>POL-GEN-CAP-005</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GEN-CAP-001</t>
+          <t>GEN-CAP-005</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[Generated] Execution Replay &amp; Activity</t>
+          <t>[Generated] Founder Console</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CAP-CAP-001</t>
+          <t>CAP-CAP-005</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3500,17 +3500,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>GOVERN</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-005</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3550,12 +3550,12 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-005</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Execution Replay &amp; Activity</t>
+          <t>Founder Console</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -3572,17 +3572,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>POL-GEN-CAP-005</t>
+          <t>POL-GEN-CAP-011</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GEN-CAP-005</t>
+          <t>GEN-CAP-011</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[Generated] Founder Console</t>
+          <t>[Generated] M28 Governance Orchestration</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CAP-CAP-005</t>
+          <t>CAP-CAP-011</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>CONTROL</t>
+          <t>ACT</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GOVERN</t>
+          <t>WRITE</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>CAP-005</t>
+          <t>CAP-011</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3662,12 +3662,12 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>CAP-005</t>
+          <t>CAP-011</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Founder Console</t>
+          <t>M28 Governance Orchestration</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -3684,17 +3684,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>POL-GEN-CAP-011</t>
+          <t>POL-GEN-CAP-003</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GEN-CAP-011</t>
+          <t>GEN-CAP-003</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[Generated] M28 Governance Orchestration</t>
+          <t>[Generated] Policy Proposals</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CAP-CAP-011</t>
+          <t>CAP-CAP-003</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>SUBSTRATE</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>EXPLAIN</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>CAP-011</t>
+          <t>CAP-003</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3774,12 +3774,12 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>CAP-011</t>
+          <t>CAP-003</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>M28 Governance Orchestration</t>
+          <t>Policy Proposals</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -3796,17 +3796,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>POL-GEN-CAP-003</t>
+          <t>POL-GEN-CAP-016</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GEN-CAP-003</t>
+          <t>GEN-CAP-016</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[Generated] Policy Proposals</t>
+          <t>[Generated] Skill System (M2/M3)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CAP-CAP-003</t>
+          <t>CAP-CAP-016</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3831,12 +3831,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SUBSTRATE</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>EXPLAIN</t>
+          <t>ACT</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>READ</t>
+          <t>WRITE</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>CAP-003</t>
+          <t>CAP-016</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3886,12 +3886,12 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>CAP-003</t>
+          <t>CAP-016</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Policy Proposals</t>
+          <t>Skill System (M2/M3)</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -3908,17 +3908,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>POL-GEN-CAP-016</t>
+          <t>POL-GEN-CAP-001</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GEN-CAP-016</t>
+          <t>GEN-CAP-001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[Generated] Skill System (M2/M3)</t>
+          <t>[Generated] Execution Replay &amp; Activity</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CAP-CAP-016</t>
+          <t>CAP-CAP-001</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3943,22 +3943,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>EVIDENCE</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CAP-016</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3998,12 +3998,12 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>CAP-016</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Skill System (M2/M3)</t>
+          <t>Execution Replay &amp; Activity</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
